--- a/doc/导航栏菜单.xlsx
+++ b/doc/导航栏菜单.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>光音堂</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>财务报告</t>
+  </si>
+  <si>
+    <t>在线圣经</t>
   </si>
 </sst>
 </file>
@@ -482,7 +485,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -551,6 +554,9 @@
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="1" t="s">
